--- a/data/trans_bre/P2C_R1-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R1-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.392038948560036</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.2379096043482617</v>
+        <v>-0.2379096043482659</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>2.287036269057845</v>
@@ -649,7 +649,7 @@
         <v>0.742415469055946</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.01996999580119119</v>
+        <v>-0.01996999580119153</v>
       </c>
     </row>
     <row r="5">
@@ -660,26 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4194500213819436</v>
+        <v>-0.132810157322579</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.723838362618571</v>
+        <v>-3.005509371013843</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.517593757283021</v>
+        <v>-1.406110874633294</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.02276678701832</v>
+        <v>-11.24937230329009</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.679190464354422</v>
+        <v>-0.7132985178471506</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6202994653806693</v>
+        <v>-0.5615126110261547</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5663243806377152</v>
+        <v>-0.6121323663862046</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.261274763822806</v>
+        <v>4.008969990764726</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.676365959925762</v>
+        <v>4.38332450769743</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.658035404419653</v>
+        <v>4.791200172255813</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.333115518863199</v>
+        <v>9.095483214584931</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>3.497837519634929</v>
+        <v>2.591854938569567</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6.21321207441648</v>
+        <v>8.367155363442734</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.531056528986353</v>
+        <v>1.446938968117293</v>
       </c>
     </row>
     <row r="7">
@@ -733,7 +733,7 @@
         <v>0.1735225777227439</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.731626033942183</v>
+        <v>4.731626033942179</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.6414715133826561</v>
@@ -745,7 +745,7 @@
         <v>0.128009338285912</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4414172810442443</v>
+        <v>0.4414172810442439</v>
       </c>
     </row>
     <row r="8">
@@ -756,24 +756,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.891536107789096</v>
+        <v>-5.783015702580414</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.507673503148084</v>
+        <v>-1.586067706794426</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.825157216852587</v>
+        <v>-2.184429449601275</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.13679114390229</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-5.606197028575215</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.3016254127318556</v>
+        <v>-0.3605491483519039</v>
       </c>
     </row>
     <row r="9">
@@ -784,24 +782,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7340504253861541</v>
+        <v>0.6282896238048665</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.360782566006951</v>
+        <v>2.221797498930088</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.901715613101721</v>
+        <v>2.604521656755611</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.45268630086922</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>2.467139910507997</v>
-      </c>
+        <v>13.56225220171512</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>2.024176743813233</v>
+        <v>2.028009211547528</v>
       </c>
     </row>
     <row r="10">
@@ -848,22 +844,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8700901675803825</v>
+        <v>-0.8684189252217587</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.443765326983429</v>
+        <v>-1.44169070400383</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.585623048681217</v>
+        <v>-2.697375322209404</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.089903840003479</v>
+        <v>3.607525635566151</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>0.1547523090224547</v>
+        <v>0.1529145428791319</v>
       </c>
     </row>
     <row r="12">
@@ -874,22 +870,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.717921375108567</v>
+        <v>3.714352405150372</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.724850341191901</v>
+        <v>1.357539823720988</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.2406365654438356</v>
+        <v>-0.3032457893384323</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>31.50342023609897</v>
+        <v>29.75954285266414</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>2.939512103349979</v>
+        <v>2.84143988118236</v>
       </c>
     </row>
     <row r="13">
@@ -913,7 +909,7 @@
         <v>-0.01323573062620396</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-6.579005590581764</v>
+        <v>-6.579005590581769</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>5.276961501423776</v>
@@ -925,7 +921,7 @@
         <v>-0.0224907942281709</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3797851755215202</v>
+        <v>-0.3797851755215205</v>
       </c>
     </row>
     <row r="14">
@@ -936,22 +932,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3650457697065301</v>
+        <v>0.3265988500719039</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3529414566288799</v>
+        <v>0.2705172814779154</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.9236709556996046</v>
+        <v>-1.010913160475185</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-14.63403762155286</v>
+        <v>-13.62197642719321</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>-0.6417741170025553</v>
+        <v>-0.6117406941086803</v>
       </c>
     </row>
     <row r="15">
@@ -962,22 +958,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.216031436785718</v>
+        <v>3.172276957833135</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.951836629945578</v>
+        <v>2.798417333423659</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8604908598268105</v>
+        <v>0.8439323667936375</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.8292981854803548</v>
+        <v>-0.06728895270280454</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>-0.04901948505372902</v>
+        <v>0.01175035468767346</v>
       </c>
     </row>
     <row r="16">
@@ -1001,7 +997,7 @@
         <v>0.09310159281383443</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.2674077350252851</v>
+        <v>-0.2674077350252796</v>
       </c>
       <c r="G16" s="6" t="inlineStr"/>
       <c r="H16" s="6" t="n">
@@ -1011,7 +1007,7 @@
         <v>0.1224034527601163</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.01609592967169633</v>
+        <v>-0.016095929671696</v>
       </c>
     </row>
     <row r="17">
@@ -1023,23 +1019,19 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>-1.161129594138428</v>
+        <v>-0.9941358628094955</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.178926704291137</v>
+        <v>-1.145298119571432</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.97667581186975</v>
+        <v>-10.38389069919445</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
-      <c r="H17" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>-0.410996443765471</v>
+        <v>-0.4148217154841853</v>
       </c>
     </row>
     <row r="18">
@@ -1051,19 +1043,19 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>1.444960727739729</v>
+        <v>1.540340827868767</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.214040981400702</v>
+        <v>1.194617000359992</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.911139391729433</v>
+        <v>7.869393708535259</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>0.6347718912855613</v>
+        <v>0.7676201637482434</v>
       </c>
     </row>
     <row r="19">
@@ -1087,7 +1079,7 @@
         <v>0.6559001720845971</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4.440580533641364</v>
+        <v>4.44058053364137</v>
       </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
@@ -1105,7 +1097,7 @@
         </is>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.2740558078794918</v>
+        <v>0.2740558078794922</v>
       </c>
     </row>
     <row r="20">
@@ -1119,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1497955920835422</v>
+        <v>0.1385564197935481</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1542917718029971</v>
+        <v>0.1497896895883535</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-31.28848686905907</v>
+        <v>-29.4780543900897</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.6461554801027557</v>
+        <v>-0.6361727689366751</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1134,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9360629273384401</v>
+        <v>0.853788633957975</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.408294229101833</v>
+        <v>1.38769486556628</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.539962629990128</v>
+        <v>1.479129835291784</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18.22673976634254</v>
+        <v>18.68768797215075</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>6.159163244162825</v>
+        <v>6.995215443490915</v>
       </c>
     </row>
     <row r="22">
@@ -1181,7 +1173,7 @@
         <v>0.04003505253863879</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.358369706089382</v>
+        <v>1.358369706089371</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3299461445596343</v>
@@ -1193,7 +1185,7 @@
         <v>0.04307931478135963</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.0894472001381911</v>
+        <v>0.08944720013819032</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1196,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3720470840734905</v>
+        <v>-0.300504350428688</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.1942981007435517</v>
+        <v>-0.2652799900476934</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.5468945180558934</v>
+        <v>-0.5549924920373105</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.657447880763511</v>
+        <v>-2.252241369416236</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4557609140089091</v>
+        <v>-0.382970750750424</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.217302687620946</v>
+        <v>-0.278687984907457</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.4653945559002579</v>
+        <v>-0.4531768899360571</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1430395290723229</v>
+        <v>-0.1304972256426088</v>
       </c>
     </row>
     <row r="24">
@@ -1236,28 +1228,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7190550517463214</v>
+        <v>0.7548885376142053</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.000599100220227</v>
+        <v>0.995222948550291</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6209407408875111</v>
+        <v>0.6573188472687387</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.950613060120255</v>
+        <v>4.867094246088231</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.08581408231433</v>
+        <v>2.483475231952782</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.066379169275786</v>
+        <v>2.023251562294917</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9200791466065037</v>
+        <v>1.145999537097331</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.3917257447806857</v>
+        <v>0.3913971319118714</v>
       </c>
     </row>
     <row r="25">
